--- a/data/train.xlsx
+++ b/data/train.xlsx
@@ -4973,7 +4973,7 @@
   <dimension ref="A1:L892"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
